--- a/Hugo/HugoWF/Questions.xlsx
+++ b/Hugo/HugoWF/Questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\Visual Studio 2013\Projects\OOP TeamWork Hugo\Hugo\HugoWF\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="209">
   <si>
     <t>Which of the following is a not content-specific element in HTML5?</t>
   </si>
@@ -92,9 +92,6 @@
     <t>&lt;rt&gt;</t>
   </si>
   <si>
-    <t>Which of the following element has not removed from HTML5?</t>
-  </si>
-  <si>
     <t>&lt;acronym&gt;</t>
   </si>
   <si>
@@ -141,6 +138,530 @@
   </si>
   <si>
     <t>All of the above are related to video.</t>
+  </si>
+  <si>
+    <t>&lt;video controls="controls" preload="auto"&gt;
+  &lt;source src="song.mp4" type="video/mp4" /&gt;
+&lt;/video&gt;
+Which of the following is true?</t>
+  </si>
+  <si>
+    <t>It should load the entire video when the page loads.</t>
+  </si>
+  <si>
+    <t>It should load only metadata when the page loads.</t>
+  </si>
+  <si>
+    <t>Which of the following element is not removed from HTML5?</t>
+  </si>
+  <si>
+    <t>It should load the part of video when the page loads.</t>
+  </si>
+  <si>
+    <t>It should not load the video when the page loads.</t>
+  </si>
+  <si>
+    <t>None of these.</t>
+  </si>
+  <si>
+    <t>&lt;video controls="controls" preload="metadata"&gt;
+  &lt;source src="song.mp4" type="video/mp4" /&gt;
+&lt;/video&gt;
+Which of the following is true?</t>
+  </si>
+  <si>
+    <t>Error.</t>
+  </si>
+  <si>
+    <t>Which of the following attribute is responsible for subtitle of a video inside &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>&lt;caption&gt;</t>
+  </si>
+  <si>
+    <t>&lt;subtitle&gt;</t>
+  </si>
+  <si>
+    <t>&lt;autoplay&gt;</t>
+  </si>
+  <si>
+    <t>Which of the following is incorrect value of kind attribute of &lt;track&gt; element?</t>
+  </si>
+  <si>
+    <t>captions</t>
+  </si>
+  <si>
+    <t>chapters</t>
+  </si>
+  <si>
+    <t>descriptions</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
+    <t>All of the above are correct value.</t>
+  </si>
+  <si>
+    <t>Which of the following is not true about kind attribute of a &lt;track&gt; element?</t>
+  </si>
+  <si>
+    <t>captions: The track defines translation of dialogue and sound effects</t>
+  </si>
+  <si>
+    <t>chapters: The track defines chapter titles</t>
+  </si>
+  <si>
+    <t>subtitles: The track defines subtitles, used to display subtitles in a video</t>
+  </si>
+  <si>
+    <t>metadata: The track defines content used by scripts</t>
+  </si>
+  <si>
+    <t>All of the above are correct.</t>
+  </si>
+  <si>
+    <t>Which of the following is not attribute of the &lt;track&gt; element.</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Which of the following is not event of &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Above all are event of the &lt;video&gt; element.</t>
+  </si>
+  <si>
+    <t>timeupdate</t>
+  </si>
+  <si>
+    <t>ended</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>emptied</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>loadedmetadata</t>
+  </si>
+  <si>
+    <t>seeking</t>
+  </si>
+  <si>
+    <t>Which of the following is not property of &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>currentTime</t>
+  </si>
+  <si>
+    <t>currentSrc</t>
+  </si>
+  <si>
+    <t>videoWidth</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>muted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppose your browser doesn't support &lt;video&gt; tag
+What will be output of following code?
+&lt;video width="320" height="240" &gt;
+  Exact Help
+&lt;/video&gt;
+</t>
+  </si>
+  <si>
+    <t>Work in audio mode.</t>
+  </si>
+  <si>
+    <t>Blank page.</t>
+  </si>
+  <si>
+    <t>Exact Help.</t>
+  </si>
+  <si>
+    <t>Error message.</t>
+  </si>
+  <si>
+    <t>The &lt;video&gt; element allows:</t>
+  </si>
+  <si>
+    <t>Single &lt;source&gt; element.</t>
+  </si>
+  <si>
+    <t>Two &lt;source&gt; element.</t>
+  </si>
+  <si>
+    <t>Three &lt;source&gt; element.</t>
+  </si>
+  <si>
+    <t>Multiple &lt;source&gt; elements.</t>
+  </si>
+  <si>
+    <t>If there are multiple &lt;source&gt; element inside a &lt;video&gt; element. Browser will display the video of:</t>
+  </si>
+  <si>
+    <t>First &lt;source&gt; element.</t>
+  </si>
+  <si>
+    <t>Last &lt;source&gt; element.</t>
+  </si>
+  <si>
+    <t>All &lt;source&gt; element from first to last.</t>
+  </si>
+  <si>
+    <t>Will depend upon the browser support of media source.</t>
+  </si>
+  <si>
+    <t>Error message: multiple media source.</t>
+  </si>
+  <si>
+    <t>Which attribute in &lt;video&gt; element is responsible for play/pause button?</t>
+  </si>
+  <si>
+    <t>autoplay</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>preload</t>
+  </si>
+  <si>
+    <t>controls</t>
+  </si>
+  <si>
+    <t>It is default of &lt;video&gt; element.</t>
+  </si>
+  <si>
+    <t>Which attribute in &lt;video&gt; element is responsible for start playing as soon as it is ready?</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>autorun</t>
+  </si>
+  <si>
+    <t>fastload</t>
+  </si>
+  <si>
+    <t>Height of the video player by &lt;video&gt; element depends:</t>
+  </si>
+  <si>
+    <t>Size of media source.</t>
+  </si>
+  <si>
+    <t>Poster attribute</t>
+  </si>
+  <si>
+    <t>Height attribute</t>
+  </si>
+  <si>
+    <t>Size attribute</t>
+  </si>
+  <si>
+    <t>Width attribute</t>
+  </si>
+  <si>
+    <t>Which attribute in &lt;video&gt; element is responsible for video will start over again, every time it is finished?</t>
+  </si>
+  <si>
+    <t>autostart</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>Which attribute in &lt;video&gt; element is responsible for audio output of the video should be muted?</t>
+  </si>
+  <si>
+    <t>voice=0</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>How to display an image when media is downloading by &lt;video&gt; element in HTML5:</t>
+  </si>
+  <si>
+    <t>Using src attribute link to image.</t>
+  </si>
+  <si>
+    <t>Using poster attribute.</t>
+  </si>
+  <si>
+    <t>Using default attributes.</t>
+  </si>
+  <si>
+    <t>Using controls attribute.</t>
+  </si>
+  <si>
+    <t>Using anyone of the above.</t>
+  </si>
+  <si>
+    <t>How can we specify the source of media in &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>By using src attribute.</t>
+  </si>
+  <si>
+    <t>By using &lt;source&gt; element.</t>
+  </si>
+  <si>
+    <t>By using &lt;controls&gt; element.</t>
+  </si>
+  <si>
+    <t>Both option (a) and (b).</t>
+  </si>
+  <si>
+    <t>What is the correct way to set the autoplay attribute in HTML5?</t>
+  </si>
+  <si>
+    <t>&lt;video autoplay&gt;</t>
+  </si>
+  <si>
+    <t>&lt;video autoplay="autoplay"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;video autoplay=""&gt;</t>
+  </si>
+  <si>
+    <t>Only options (B) and (C).</t>
+  </si>
+  <si>
+    <t>Options (A), (B) and (C) are correct.</t>
+  </si>
+  <si>
+    <t>Which of the following is false about autoplay attribute of &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>It is boolean attribute.</t>
+  </si>
+  <si>
+    <t>Video will automatically start playing.</t>
+  </si>
+  <si>
+    <t>It value can be "autoplay" or ""</t>
+  </si>
+  <si>
+    <t>It is correct to write &lt;video autoplay&gt;</t>
+  </si>
+  <si>
+    <t>Controls attribute in &lt;video&gt; element doesn't include:</t>
+  </si>
+  <si>
+    <t>Play button</t>
+  </si>
+  <si>
+    <t>Pause button</t>
+  </si>
+  <si>
+    <t>Seeking</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>It includes all of the above.</t>
+  </si>
+  <si>
+    <t>Full screen toggle.</t>
+  </si>
+  <si>
+    <t>Captions/Subtitles (when available in media).</t>
+  </si>
+  <si>
+    <t>Track (when available in media).</t>
+  </si>
+  <si>
+    <t>Source.</t>
+  </si>
+  <si>
+    <t>Which of the following in not true about height and width attribute in &lt;video&gt; element in HTML5.</t>
+  </si>
+  <si>
+    <t>If height and width are set then space required for the video is reserved when the page is loaded.</t>
+  </si>
+  <si>
+    <t>If height and width are not set, the browser does not know the size of the video, and cannot reserve the appropriate space to it.</t>
+  </si>
+  <si>
+    <t>If height and width are not set then page layout may change during loading.</t>
+  </si>
+  <si>
+    <t>Downsizing a large video with the height and width attributes forces a user to download the original video.</t>
+  </si>
+  <si>
+    <t>Which of the following web browser doesn't support the loop attribute of &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>Internet Explorer 9</t>
+  </si>
+  <si>
+    <t>Google Chrome 6</t>
+  </si>
+  <si>
+    <t>Firefox 4.0</t>
+  </si>
+  <si>
+    <t>Opera 10.6</t>
+  </si>
+  <si>
+    <t>Apple Safari 5</t>
+  </si>
+  <si>
+    <t>Which of the following is incorrect way to set the loop attribute of &lt;video&gt; element in HTML5?</t>
+  </si>
+  <si>
+    <t>&lt;video loop&gt;</t>
+  </si>
+  <si>
+    <t>&lt;video loop="loop"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;video loop=""&gt;</t>
+  </si>
+  <si>
+    <t>&lt;video loop="default"&gt;</t>
+  </si>
+  <si>
+    <t>Which of the following web browser doesn't support the muted attribute of &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>It is supported by above all browsers.</t>
+  </si>
+  <si>
+    <t>Which of the following is false about poster attribute of &lt;video&gt; element?</t>
+  </si>
+  <si>
+    <t>The poster attribute specifies an image to be shown while the video is downloading.</t>
+  </si>
+  <si>
+    <t>If this is not specified it will display first frame of the video.</t>
+  </si>
+  <si>
+    <t>If this is not specified it will display black screen.</t>
+  </si>
+  <si>
+    <t>It accepts relative URL.</t>
+  </si>
+  <si>
+    <t>It accepts absolute URL.</t>
+  </si>
+  <si>
+    <t>When autoplay attribute has defined in &lt;video&gt; element then:</t>
+  </si>
+  <si>
+    <t>Preload attribute is ignored.</t>
+  </si>
+  <si>
+    <t>Web browser assume preload="auto"</t>
+  </si>
+  <si>
+    <t>Web browser assume preload="metadata"</t>
+  </si>
+  <si>
+    <t>Both (A) and (C)</t>
+  </si>
+  <si>
+    <t>&lt;font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;basefont&gt;</t>
+  </si>
+  <si>
+    <t>&lt;small&gt;</t>
+  </si>
+  <si>
+    <t>&lt;big&gt;</t>
+  </si>
+  <si>
+    <t>&lt;strike&gt;</t>
+  </si>
+  <si>
+    <t>Which of the following is not true about HTML5?</t>
+  </si>
+  <si>
+    <t>Better error handling.</t>
+  </si>
+  <si>
+    <t>Reduce the need for external plug-in (like Flash)</t>
+  </si>
+  <si>
+    <t>Uses more markups to replace scripting language.</t>
+  </si>
+  <si>
+    <t>Only options (A) and (C) are correct.</t>
+  </si>
+  <si>
+    <t>Which of the following is not new feature of HTML5?</t>
+  </si>
+  <si>
+    <t>Use &lt;canvas&gt; element for 2D drawing.</t>
+  </si>
+  <si>
+    <t>Use &lt;video&gt; elements for media playback.</t>
+  </si>
+  <si>
+    <t>Use &lt;audio&gt; elements for media playback.</t>
+  </si>
+  <si>
+    <t>Support for local storage.</t>
+  </si>
+  <si>
+    <t>All of the above are new features.</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
 </sst>
 </file>
@@ -499,19 +1020,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -632,75 +1155,877 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
